--- a/dictionnaire de données Projet Reunion.xlsx
+++ b/dictionnaire de données Projet Reunion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Exercices\GestionReunion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010BFF3C-58D8-452C-80F7-BD2B6C19B131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C179B75-D9AF-408B-B3A1-18EB5BD09688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1425" windowWidth="19440" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="149">
   <si>
     <t xml:space="preserve">Libelle </t>
   </si>
@@ -279,9 +279,6 @@
     <t>libelle de la priorite de la tache</t>
   </si>
   <si>
-    <t>idProgressionTache</t>
-  </si>
-  <si>
     <t>libelleProgressionTache</t>
   </si>
   <si>
@@ -433,6 +430,48 @@
   </si>
   <si>
     <t>Question entre participant ? Sauvegarde ou CR direct</t>
+  </si>
+  <si>
+    <t>ValidationUtilisateur</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>Validation de l'utilisateur par admin</t>
+  </si>
+  <si>
+    <t>validationUtilisateur</t>
+  </si>
+  <si>
+    <t>IdReunion</t>
+  </si>
+  <si>
+    <t>IdOrdreDuJour</t>
+  </si>
+  <si>
+    <t>IdCompteRendu</t>
+  </si>
+  <si>
+    <t>IdSalle</t>
+  </si>
+  <si>
+    <t>IdTache</t>
+  </si>
+  <si>
+    <t>IdPrioriteTache</t>
+  </si>
+  <si>
+    <t>LibellePrioriteTache</t>
+  </si>
+  <si>
+    <t>IdProgressionTache</t>
+  </si>
+  <si>
+    <t>LibelleProgressionTache</t>
+  </si>
+  <si>
+    <t>IdLigneOrdreDuJour</t>
   </si>
 </sst>
 </file>
@@ -595,63 +634,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -670,6 +655,69 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -697,46 +745,40 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1024,10 +1066,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L62"/>
+  <dimension ref="B2:L63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.5703125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1036,874 +1078,890 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="49"/>
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="25" t="s">
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="G11" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C12" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="25" t="s">
+      <c r="D12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="25" t="s">
+    </row>
+    <row r="13" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="42" t="s">
+      <c r="D14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="G16" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="6" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="25" t="s">
+      <c r="E17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J17" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="30"/>
+    </row>
+    <row r="18" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="J18" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="30"/>
+    </row>
+    <row r="19" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="25" t="s">
+      <c r="D19" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H19" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="25" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="25" t="s">
+      <c r="I19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="7"/>
+    </row>
+    <row r="20" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" s="48"/>
-    </row>
-    <row r="9" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="H9" s="48"/>
-    </row>
-    <row r="10" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="13"/>
-      <c r="G10" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="H10" s="48"/>
-    </row>
-    <row r="11" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="24" t="s">
+      <c r="D21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+    </row>
+    <row r="22" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="H22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="I22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22" s="32" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="24" t="s">
+      <c r="K22" s="33"/>
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="24" t="s">
+      <c r="I23" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J23" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="33"/>
+      <c r="L23" s="34"/>
+    </row>
+    <row r="24" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F14" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
+      <c r="I24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+    </row>
+    <row r="26" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="G15" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="16"/>
-    </row>
-    <row r="16" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="45"/>
+      <c r="G26" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="37"/>
+    </row>
+    <row r="27" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C27" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="23" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="23" t="s">
+      <c r="D27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="25" t="s">
+      <c r="G27" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H27" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I16" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="J16" s="26" t="s">
+      <c r="I27" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K16" s="27"/>
-    </row>
-    <row r="17" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="23" t="s">
+      <c r="K27" s="39"/>
+    </row>
+    <row r="28" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="25" t="s">
+      <c r="D28" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="27"/>
-    </row>
-    <row r="18" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="23" t="s">
+      <c r="I28" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="K28" s="8"/>
+    </row>
+    <row r="29" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18" s="25" t="s">
+      <c r="D29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="8"/>
+    </row>
+    <row r="30" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G30" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J30" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="39"/>
+    </row>
+    <row r="31" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="48"/>
+    </row>
+    <row r="32" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I18" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="J18" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="25"/>
-    </row>
-    <row r="19" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="23" t="s">
+      <c r="D34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="28"/>
+    </row>
+    <row r="38" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-    </row>
-    <row r="21" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="20" t="s">
+      <c r="D40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="H21" s="20" t="s">
+      <c r="C44" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="I21" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="J21" s="29" t="s">
+      <c r="D44" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
-    </row>
-    <row r="22" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="20" t="s">
+    </row>
+    <row r="45" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="J22" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="K22" s="30"/>
-      <c r="L22" s="31"/>
-    </row>
-    <row r="23" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="20" t="s">
+      <c r="D45" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="19"/>
+    </row>
+    <row r="50" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I23" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-    </row>
-    <row r="25" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="7"/>
-      <c r="G25" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
-    </row>
-    <row r="26" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="22" t="s">
+      <c r="D52" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="22"/>
+    </row>
+    <row r="55" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C55" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="E26" s="22" t="s">
+      <c r="D55" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G26" s="35" t="s">
+    </row>
+    <row r="56" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="25"/>
+    </row>
+    <row r="60" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="C60" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="I26" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="J26" s="36" t="s">
+      <c r="D60" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="K26" s="37"/>
-    </row>
-    <row r="27" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="22" t="s">
+    </row>
+    <row r="61" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="I27" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="J27" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" s="35"/>
-    </row>
-    <row r="28" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="22" t="s">
+      <c r="D61" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="35" t="s">
-        <v>125</v>
-      </c>
-      <c r="J28" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="K28" s="35"/>
-    </row>
-    <row r="29" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G29" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="K29" s="37"/>
-    </row>
-    <row r="30" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="21" t="s">
+      <c r="D62" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="19"/>
-    </row>
-    <row r="37" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="E39" s="20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="38" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
-    </row>
-    <row r="43" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" s="41" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="E44" s="41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="C45" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="D45" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="E45" s="41" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="16"/>
-    </row>
-    <row r="49" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E50" s="25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="13"/>
-    </row>
-    <row r="54" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E55" s="24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="E56" s="24" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="45"/>
-    </row>
-    <row r="59" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="46" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="D59" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="E59" s="46" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D60" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="E60" s="46" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="C61" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="E61" s="46" t="s">
+      <c r="D63" s="11" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="62" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="46" t="s">
+      <c r="E63" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="C62" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="E62" s="46" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="G26:K26"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="J17:K17"/>
-    <mergeCell ref="G20:L20"/>
-    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="G21:L21"/>
     <mergeCell ref="J22:L22"/>
-    <mergeCell ref="G25:K25"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B37:E37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dictionnaire de données Projet Reunion.xlsx
+++ b/dictionnaire de données Projet Reunion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Exercices\GestionReunion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6AA7F0F-ED62-4E74-A11B-AD0190340620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8283D6D2-3712-42D7-A6F6-3A071479E380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1425" windowWidth="19440" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="136">
   <si>
     <t xml:space="preserve">Libelle </t>
   </si>
@@ -291,9 +291,6 @@
     <t>emailUtilisateur</t>
   </si>
   <si>
-    <t>motDePasse</t>
-  </si>
-  <si>
     <t>idRole</t>
   </si>
   <si>
@@ -354,12 +351,6 @@
     <t>titre du fichier Annexe</t>
   </si>
   <si>
-    <t>liensFichierAnnexe</t>
-  </si>
-  <si>
-    <t>liens vers le fichier annexe</t>
-  </si>
-  <si>
     <t>ValidationUtilisateur</t>
   </si>
   <si>
@@ -402,9 +393,6 @@
     <t>idEtatAvancement</t>
   </si>
   <si>
-    <t>libelleStatutAvancement</t>
-  </si>
-  <si>
     <t>identifiant de l'état d'avancement</t>
   </si>
   <si>
@@ -430,6 +418,21 @@
   </si>
   <si>
     <t>Libelle du sujet</t>
+  </si>
+  <si>
+    <t>motDePasseUtilisateur</t>
+  </si>
+  <si>
+    <t>libelleEtatAvancement</t>
+  </si>
+  <si>
+    <t>lienFichierAnnexe</t>
+  </si>
+  <si>
+    <t>lien vers le fichier annexe</t>
+  </si>
+  <si>
+    <t>Statu présence (1-présence Obligatoire / 0-présence facultative)</t>
   </si>
 </sst>
 </file>
@@ -610,6 +613,48 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -617,15 +662,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -667,9 +703,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -679,37 +712,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -999,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30:K30"/>
+    <sheetView tabSelected="1" topLeftCell="F10" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="31.5703125" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1009,12 +1012,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
@@ -1075,6 +1078,9 @@
       <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
+      <c r="G6" s="44" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="7" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
@@ -1098,43 +1104,43 @@
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="G8" s="9"/>
-      <c r="H8" s="43"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>114</v>
-      </c>
       <c r="E9" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="43"/>
+        <v>110</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
@@ -1158,7 +1164,7 @@
         <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>16</v>
@@ -1172,7 +1178,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>20</v>
@@ -1184,19 +1190,19 @@
       </c>
     </row>
     <row r="16" spans="2:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="G16" s="14" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="G16" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="16"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="18"/>
     </row>
     <row r="17" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
@@ -1220,14 +1226,14 @@
       <c r="I17" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="J17" s="28" t="s">
+      <c r="J17" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K17" s="29"/>
+      <c r="K17" s="40"/>
     </row>
     <row r="18" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>18</v>
@@ -1245,12 +1251,12 @@
         <v>18</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="J18" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="J18" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="K18" s="29"/>
+      <c r="K18" s="40"/>
     </row>
     <row r="19" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
@@ -1260,7 +1266,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>24</v>
@@ -1272,7 +1278,7 @@
         <v>7</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J19" s="6" t="s">
         <v>37</v>
@@ -1287,7 +1293,7 @@
         <v>26</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>27</v>
@@ -1301,19 +1307,19 @@
         <v>7</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
+      <c r="G21" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
     </row>
     <row r="22" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
@@ -1323,7 +1329,7 @@
         <v>30</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>32</v>
@@ -1337,11 +1343,11 @@
       <c r="I22" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J22" s="31" t="s">
+      <c r="J22" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="K22" s="32"/>
-      <c r="L22" s="33"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="43"/>
     </row>
     <row r="23" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
@@ -1351,25 +1357,25 @@
         <v>30</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>34</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="J23" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="K23" s="32"/>
-      <c r="L23" s="33"/>
+        <v>121</v>
+      </c>
+      <c r="J23" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23" s="42"/>
+      <c r="L23" s="43"/>
     </row>
     <row r="24" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
@@ -1379,40 +1385,40 @@
         <v>40</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
     </row>
     <row r="26" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="13"/>
-      <c r="G26" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
+      <c r="G26" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="30"/>
     </row>
     <row r="27" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
@@ -1436,14 +1442,14 @@
       <c r="I27" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="J27" s="20" t="s">
+      <c r="J27" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="K27" s="21"/>
+      <c r="K27" s="32"/>
     </row>
     <row r="28" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>18</v>
@@ -1455,16 +1461,16 @@
         <v>48</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K28" s="7"/>
     </row>
@@ -1476,22 +1482,22 @@
         <v>7</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>50</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>42</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="K29" s="7"/>
     </row>
@@ -1503,7 +1509,7 @@
         <v>57</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E30" s="3" t="s">
         <v>59</v>
@@ -1515,20 +1521,20 @@
         <v>43</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J30" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="J30" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="K30" s="21"/>
+      <c r="K30" s="32"/>
     </row>
     <row r="32" spans="2:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="24"/>
     </row>
     <row r="33" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
@@ -1546,7 +1552,7 @@
     </row>
     <row r="34" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>18</v>
@@ -1566,7 +1572,7 @@
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>54</v>
@@ -1580,19 +1586,19 @@
         <v>4</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="36"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
     </row>
     <row r="39" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="8" t="s">
@@ -1602,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>2</v>
@@ -1610,7 +1616,7 @@
     </row>
     <row r="40" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>18</v>
@@ -1651,12 +1657,12 @@
       </c>
     </row>
     <row r="44" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="18"/>
     </row>
     <row r="45" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="6" t="s">
@@ -1674,7 +1680,7 @@
     </row>
     <row r="46" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>18</v>
@@ -1688,7 +1694,7 @@
     </row>
     <row r="47" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>7</v>
@@ -1701,12 +1707,12 @@
       </c>
     </row>
     <row r="49" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="39"/>
+      <c r="B49" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="21"/>
     </row>
     <row r="50" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
@@ -1724,13 +1730,13 @@
     </row>
     <row r="51" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>18</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>73</v>
@@ -1738,39 +1744,34 @@
     </row>
     <row r="52" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D52" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>107</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="53" spans="2:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B44:E44"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="B26:E26"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="G26:K26"/>
     <mergeCell ref="J27:K27"/>
@@ -1783,6 +1784,11 @@
     <mergeCell ref="G21:L21"/>
     <mergeCell ref="J22:L22"/>
     <mergeCell ref="J23:L23"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
